--- a/app/tmp/excels/sales_template.xlsx
+++ b/app/tmp/excels/sales_template.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takano yohei\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="us" sheetId="1" r:id="rId1"/>
     <sheet name="japan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>NO</t>
   </si>
@@ -126,6 +121,13 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -601,11 +603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X7"/>
+  <dimension ref="B2:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -715,25 +717,35 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="11"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="19"/>
+    <row r="5" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="5"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
@@ -753,11 +765,11 @@
         <v>3</v>
       </c>
       <c r="E7" s="23">
-        <f t="shared" ref="E7:M7" si="0">SUM(E5:E6)</f>
+        <f>SUM(E5:E6)</f>
         <v>0</v>
       </c>
       <c r="F7" s="23">
-        <f t="shared" ref="F7" si="1">SUM(F5:F6)</f>
+        <f t="shared" ref="F7:N8" si="0">SUM(F5:F6)</f>
         <v>0</v>
       </c>
       <c r="G7" s="23">
@@ -789,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="23">
-        <f>SUM(N5:N6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O7" s="19" t="e">
@@ -804,6 +816,39 @@
         <f>P7/E7</f>
         <v>#DIV/0!</v>
       </c>
+    </row>
+    <row r="8" spans="2:24" s="15" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="19" t="e">
+        <f>N8/E8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="19" t="e">
+        <f>P8/E8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -820,10 +865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X7"/>
+  <dimension ref="B2:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,25 +979,35 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="11"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="19"/>
+    <row r="5" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="5"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -972,11 +1027,11 @@
         <v>3</v>
       </c>
       <c r="E7" s="17">
-        <f t="shared" ref="E7:M7" si="0">SUM(E5:E6)</f>
+        <f>SUM(E5:E6)</f>
         <v>0</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" ref="F7" si="1">SUM(F5:F6)</f>
+        <f t="shared" ref="F7:N8" si="0">SUM(F5:F6)</f>
         <v>0</v>
       </c>
       <c r="G7" s="17">
@@ -1008,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="17">
-        <f>SUM(N5:N6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O7" s="19" t="e">
@@ -1021,6 +1076,30 @@
       </c>
       <c r="Q7" s="19" t="e">
         <f>P7/E7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="19" t="e">
+        <f>N8/E8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="19" t="e">
+        <f>P8/E8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1031,5 +1110,6 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/tmp/excels/sales_template.xlsx
+++ b/app/tmp/excels/sales_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="11715"/>
@@ -10,12 +10,12 @@
     <sheet name="us" sheetId="1" r:id="rId1"/>
     <sheet name="japan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>NO</t>
   </si>
@@ -128,6 +128,26 @@
     <t>平均</t>
     <rPh sb="0" eb="2">
       <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>販売為替</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カワセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原価為替</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カワセ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -135,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
@@ -143,7 +163,7 @@
     <numFmt numFmtId="177" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -202,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -245,24 +265,9 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -272,18 +277,6 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -297,6 +290,36 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,65 +625,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.875" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="11" style="9" customWidth="1"/>
     <col min="4" max="4" width="16.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
-    <col min="8" max="13" width="12.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.75" style="3" customWidth="1"/>
-    <col min="17" max="17" width="16.875" style="3" customWidth="1"/>
-    <col min="18" max="20" width="15.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="14" style="18" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="18" customWidth="1"/>
+    <col min="8" max="13" width="12.5" style="18" customWidth="1"/>
+    <col min="14" max="14" width="10.75" style="18" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="16.75" style="18" customWidth="1"/>
+    <col min="17" max="17" width="16.875" style="18" customWidth="1"/>
+    <col min="18" max="19" width="15.625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="15.625" style="3" customWidth="1"/>
     <col min="21" max="21" width="12.75" style="3" customWidth="1"/>
     <col min="22" max="24" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-    </row>
-    <row r="3" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:24" ht="20.25" customHeight="1">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="2:24" s="8" customFormat="1">
       <c r="B3" s="6"/>
       <c r="C3" s="10"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
     </row>
-    <row r="4" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:24" s="1" customFormat="1">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -670,180 +694,184 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:24" s="1" customFormat="1">
       <c r="B5" s="5"/>
       <c r="C5" s="11"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:24">
       <c r="B6" s="11"/>
       <c r="C6" s="5"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="2:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="2:24" ht="26.25" customHeight="1">
       <c r="D7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="31">
         <f>SUM(E5:E6)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="23">
-        <f t="shared" ref="F7:N8" si="0">SUM(F5:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="19" t="e">
+      <c r="F7" s="31">
+        <f t="shared" ref="F7:N7" si="0">SUM(F5:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="25" t="e">
         <f>N7/E7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="32">
         <f>SUM(P5:P6)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="19" t="e">
+      <c r="Q7" s="25" t="e">
         <f>P7/E7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="2:24" s="15" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:24" s="14" customFormat="1" ht="26.25" customHeight="1">
       <c r="B8" s="4"/>
       <c r="C8" s="9"/>
       <c r="D8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="19" t="e">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="25" t="e">
         <f>N8/E8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="19" t="e">
+      <c r="P8" s="32"/>
+      <c r="Q8" s="25" t="e">
         <f>P8/E8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -864,65 +892,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:X8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="E4" sqref="E4:S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="14" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="11" style="9" customWidth="1"/>
     <col min="4" max="4" width="16.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
-    <col min="8" max="13" width="12.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.75" style="3" customWidth="1"/>
-    <col min="17" max="17" width="16.875" style="3" customWidth="1"/>
-    <col min="18" max="20" width="15.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="18" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="18" customWidth="1"/>
+    <col min="8" max="13" width="12.5" style="18" customWidth="1"/>
+    <col min="14" max="14" width="10.75" style="18" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="16.75" style="18" customWidth="1"/>
+    <col min="17" max="17" width="16.875" style="18" customWidth="1"/>
+    <col min="18" max="19" width="15.625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="15.625" style="3" customWidth="1"/>
     <col min="21" max="21" width="12.75" style="3" customWidth="1"/>
     <col min="22" max="24" width="9" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="15"/>
+    <col min="25" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-    </row>
-    <row r="3" spans="2:24" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:24" ht="20.25" customHeight="1">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="2:24" s="16" customFormat="1">
       <c r="B3" s="6"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-    </row>
-    <row r="4" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="15"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+    </row>
+    <row r="4" spans="2:24" s="1" customFormat="1">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -932,173 +961,177 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:24" s="1" customFormat="1">
       <c r="B5" s="5"/>
       <c r="C5" s="11"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:24">
       <c r="B6" s="11"/>
       <c r="C6" s="5"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="26"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="2:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="2:24" ht="26.25" customHeight="1">
       <c r="D7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="27">
         <f>SUM(E5:E6)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="17">
-        <f t="shared" ref="F7:N8" si="0">SUM(F5:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="19" t="e">
+      <c r="F7" s="27">
+        <f t="shared" ref="F7:N7" si="0">SUM(F5:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="25" t="e">
         <f>N7/E7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="28">
         <f>SUM(P5:P6)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="19" t="e">
+      <c r="Q7" s="25" t="e">
         <f>P7/E7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:24" ht="26.25" customHeight="1">
       <c r="D8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="19" t="e">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="25" t="e">
         <f>N8/E8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="19" t="e">
+      <c r="P8" s="28"/>
+      <c r="Q8" s="25" t="e">
         <f>P8/E8</f>
         <v>#DIV/0!</v>
       </c>
